--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inhba-Bambi.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inhba-Bambi.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H2">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I2">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J2">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.021880666666667</v>
+        <v>3.583893333333334</v>
       </c>
       <c r="N2">
-        <v>9.065642</v>
+        <v>10.75168</v>
       </c>
       <c r="O2">
-        <v>0.5441995943133758</v>
+        <v>0.5833679094368157</v>
       </c>
       <c r="P2">
-        <v>0.5441995943133759</v>
+        <v>0.5833679094368157</v>
       </c>
       <c r="Q2">
-        <v>1.198307639789111</v>
+        <v>0.3766217933511111</v>
       </c>
       <c r="R2">
-        <v>10.784768758102</v>
+        <v>3.38959614016</v>
       </c>
       <c r="S2">
-        <v>0.05440860783032559</v>
+        <v>0.0176844141717898</v>
       </c>
       <c r="T2">
-        <v>0.05440860783032561</v>
+        <v>0.0176844141717898</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H3">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I3">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J3">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9030990000000001</v>
+        <v>0.903099</v>
       </c>
       <c r="N3">
         <v>2.709297</v>
       </c>
       <c r="O3">
-        <v>0.1626358429192821</v>
+        <v>0.1470018570989312</v>
       </c>
       <c r="P3">
-        <v>0.1626358429192821</v>
+        <v>0.1470018570989312</v>
       </c>
       <c r="Q3">
-        <v>0.358118188823</v>
+        <v>0.09490426564599999</v>
       </c>
       <c r="R3">
-        <v>3.223063699407</v>
+        <v>0.8541383908139999</v>
       </c>
       <c r="S3">
-        <v>0.01626019182854095</v>
+        <v>0.004456264533764731</v>
       </c>
       <c r="T3">
-        <v>0.01626019182854096</v>
+        <v>0.004456264533764732</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H4">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I4">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J4">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.403027</v>
+        <v>0.5847076666666666</v>
       </c>
       <c r="N4">
-        <v>1.209081</v>
+        <v>1.754123</v>
       </c>
       <c r="O4">
-        <v>0.07257967937538354</v>
+        <v>0.09517573694576431</v>
       </c>
       <c r="P4">
-        <v>0.07257967937538355</v>
+        <v>0.09517573694576432</v>
       </c>
       <c r="Q4">
-        <v>0.1598178043456667</v>
+        <v>0.06144536946955555</v>
       </c>
       <c r="R4">
-        <v>1.438360239111</v>
+        <v>0.553008325226</v>
       </c>
       <c r="S4">
-        <v>0.007256453979111231</v>
+        <v>0.002885189815941549</v>
       </c>
       <c r="T4">
-        <v>0.007256453979111233</v>
+        <v>0.002885189815941549</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H5">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I5">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J5">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.224883666666667</v>
+        <v>1.071753</v>
       </c>
       <c r="N5">
-        <v>3.674651</v>
+        <v>3.215259</v>
       </c>
       <c r="O5">
-        <v>0.2205848833919584</v>
+        <v>0.1744544965184888</v>
       </c>
       <c r="P5">
-        <v>0.2205848833919585</v>
+        <v>0.1744544965184889</v>
       </c>
       <c r="Q5">
-        <v>0.4857198604201111</v>
+        <v>0.112627664762</v>
       </c>
       <c r="R5">
-        <v>4.371478743781</v>
+        <v>1.013648982858</v>
       </c>
       <c r="S5">
-        <v>0.0220538871016872</v>
+        <v>0.005288473227028212</v>
       </c>
       <c r="T5">
-        <v>0.02205388710168721</v>
+        <v>0.005288473227028213</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I6">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J6">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.021880666666667</v>
+        <v>3.583893333333334</v>
       </c>
       <c r="N6">
-        <v>9.065642</v>
+        <v>10.75168</v>
       </c>
       <c r="O6">
-        <v>0.5441995943133758</v>
+        <v>0.5833679094368157</v>
       </c>
       <c r="P6">
-        <v>0.5441995943133759</v>
+        <v>0.5833679094368157</v>
       </c>
       <c r="Q6">
-        <v>6.656834439225332</v>
+        <v>7.894879778346666</v>
       </c>
       <c r="R6">
-        <v>59.91150995302799</v>
+        <v>71.05391800512</v>
       </c>
       <c r="S6">
-        <v>0.3022505092756964</v>
+        <v>0.3707069699671128</v>
       </c>
       <c r="T6">
-        <v>0.3022505092756965</v>
+        <v>0.3707069699671128</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I7">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J7">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9030990000000001</v>
+        <v>0.903099</v>
       </c>
       <c r="N7">
         <v>2.709297</v>
       </c>
       <c r="O7">
-        <v>0.1626358429192821</v>
+        <v>0.1470018570989312</v>
       </c>
       <c r="P7">
-        <v>0.1626358429192821</v>
+        <v>0.1470018570989312</v>
       </c>
       <c r="Q7">
         <v>1.989416918922</v>
@@ -883,10 +883,10 @@
         <v>17.904752270298</v>
       </c>
       <c r="S7">
-        <v>0.09032856117957409</v>
+        <v>0.09341379966767878</v>
       </c>
       <c r="T7">
-        <v>0.09032856117957412</v>
+        <v>0.09341379966767881</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I8">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J8">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.403027</v>
+        <v>0.5847076666666666</v>
       </c>
       <c r="N8">
-        <v>1.209081</v>
+        <v>1.754123</v>
       </c>
       <c r="O8">
-        <v>0.07257967937538354</v>
+        <v>0.09517573694576431</v>
       </c>
       <c r="P8">
-        <v>0.07257967937538355</v>
+        <v>0.09517573694576432</v>
       </c>
       <c r="Q8">
-        <v>0.8878193117059999</v>
+        <v>1.288039655331333</v>
       </c>
       <c r="R8">
-        <v>7.990373805353999</v>
+        <v>11.592356897982</v>
       </c>
       <c r="S8">
-        <v>0.04031102794546357</v>
+        <v>0.06048037351182528</v>
       </c>
       <c r="T8">
-        <v>0.04031102794546358</v>
+        <v>0.0604803735118253</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I9">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J9">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.224883666666667</v>
+        <v>1.071753</v>
       </c>
       <c r="N9">
-        <v>3.674651</v>
+        <v>3.215259</v>
       </c>
       <c r="O9">
-        <v>0.2205848833919584</v>
+        <v>0.1744544965184888</v>
       </c>
       <c r="P9">
-        <v>0.2205848833919585</v>
+        <v>0.1744544965184889</v>
       </c>
       <c r="Q9">
-        <v>2.698269281859333</v>
+        <v>2.360941105134</v>
       </c>
       <c r="R9">
-        <v>24.284423536734</v>
+        <v>21.248469946206</v>
       </c>
       <c r="S9">
-        <v>0.1225136770413443</v>
+        <v>0.1108588538302376</v>
       </c>
       <c r="T9">
-        <v>0.1225136770413444</v>
+        <v>0.1108588538302376</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H10">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I10">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J10">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.021880666666667</v>
+        <v>3.583893333333334</v>
       </c>
       <c r="N10">
-        <v>9.065642</v>
+        <v>10.75168</v>
       </c>
       <c r="O10">
-        <v>0.5441995943133758</v>
+        <v>0.5833679094368157</v>
       </c>
       <c r="P10">
-        <v>0.5441995943133759</v>
+        <v>0.5833679094368157</v>
       </c>
       <c r="Q10">
-        <v>3.873878767468667</v>
+        <v>3.464509067875556</v>
       </c>
       <c r="R10">
-        <v>34.864908907218</v>
+        <v>31.18058161088</v>
       </c>
       <c r="S10">
-        <v>0.1758916856096498</v>
+        <v>0.1626772914893827</v>
       </c>
       <c r="T10">
-        <v>0.1758916856096498</v>
+        <v>0.1626772914893827</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H11">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I11">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J11">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9030990000000001</v>
+        <v>0.903099</v>
       </c>
       <c r="N11">
         <v>2.709297</v>
       </c>
       <c r="O11">
-        <v>0.1626358429192821</v>
+        <v>0.1470018570989312</v>
       </c>
       <c r="P11">
-        <v>0.1626358429192821</v>
+        <v>0.1470018570989312</v>
       </c>
       <c r="Q11">
-        <v>1.157721441357</v>
+        <v>0.8730155681780001</v>
       </c>
       <c r="R11">
-        <v>10.419492972213</v>
+        <v>7.857140113602</v>
       </c>
       <c r="S11">
-        <v>0.05256581013756857</v>
+        <v>0.04099276557712934</v>
       </c>
       <c r="T11">
-        <v>0.05256581013756858</v>
+        <v>0.04099276557712935</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H12">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I12">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J12">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.403027</v>
+        <v>0.5847076666666666</v>
       </c>
       <c r="N12">
-        <v>1.209081</v>
+        <v>1.754123</v>
       </c>
       <c r="O12">
-        <v>0.07257967937538354</v>
+        <v>0.09517573694576431</v>
       </c>
       <c r="P12">
-        <v>0.07257967937538355</v>
+        <v>0.09517573694576432</v>
       </c>
       <c r="Q12">
-        <v>0.516657641461</v>
+        <v>0.5652302746797778</v>
       </c>
       <c r="R12">
-        <v>4.649918773149</v>
+        <v>5.087072472118</v>
       </c>
       <c r="S12">
-        <v>0.02345860283569558</v>
+        <v>0.02654059445400444</v>
       </c>
       <c r="T12">
-        <v>0.02345860283569559</v>
+        <v>0.02654059445400444</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H13">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I13">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J13">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.224883666666667</v>
+        <v>1.071753</v>
       </c>
       <c r="N13">
-        <v>3.674651</v>
+        <v>3.215259</v>
       </c>
       <c r="O13">
-        <v>0.2205848833919584</v>
+        <v>0.1744544965184888</v>
       </c>
       <c r="P13">
-        <v>0.2205848833919585</v>
+        <v>0.1744544965184889</v>
       </c>
       <c r="Q13">
-        <v>1.570231042297667</v>
+        <v>1.036051478566</v>
       </c>
       <c r="R13">
-        <v>14.132079380679</v>
+        <v>9.324463307094002</v>
       </c>
       <c r="S13">
-        <v>0.07129561904354764</v>
+        <v>0.04864817642981014</v>
       </c>
       <c r="T13">
-        <v>0.07129561904354766</v>
+        <v>0.04864817642981015</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H14">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I14">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J14">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.021880666666667</v>
+        <v>3.583893333333334</v>
       </c>
       <c r="N14">
-        <v>9.065642</v>
+        <v>10.75168</v>
       </c>
       <c r="O14">
-        <v>0.5441995943133758</v>
+        <v>0.5833679094368157</v>
       </c>
       <c r="P14">
-        <v>0.5441995943133759</v>
+        <v>0.5833679094368157</v>
       </c>
       <c r="Q14">
-        <v>0.2565556540128889</v>
+        <v>0.6878709830400002</v>
       </c>
       <c r="R14">
-        <v>2.309000886116</v>
+        <v>6.19083884736</v>
       </c>
       <c r="S14">
-        <v>0.01164879159770405</v>
+        <v>0.03229923380853041</v>
       </c>
       <c r="T14">
-        <v>0.01164879159770406</v>
+        <v>0.03229923380853041</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H15">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I15">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J15">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9030990000000001</v>
+        <v>0.903099</v>
       </c>
       <c r="N15">
         <v>2.709297</v>
       </c>
       <c r="O15">
-        <v>0.1626358429192821</v>
+        <v>0.1470018570989312</v>
       </c>
       <c r="P15">
-        <v>0.1626358429192821</v>
+        <v>0.1470018570989312</v>
       </c>
       <c r="Q15">
-        <v>0.076672503034</v>
+        <v>0.173335403466</v>
       </c>
       <c r="R15">
-        <v>0.690052527306</v>
+        <v>1.560018631194</v>
       </c>
       <c r="S15">
-        <v>0.003481279773598472</v>
+        <v>0.008139027320358306</v>
       </c>
       <c r="T15">
-        <v>0.003481279773598473</v>
+        <v>0.008139027320358306</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H16">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I16">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J16">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.403027</v>
+        <v>0.5847076666666666</v>
       </c>
       <c r="N16">
-        <v>1.209081</v>
+        <v>1.754123</v>
       </c>
       <c r="O16">
-        <v>0.07257967937538354</v>
+        <v>0.09517573694576431</v>
       </c>
       <c r="P16">
-        <v>0.07257967937538355</v>
+        <v>0.09517573694576432</v>
       </c>
       <c r="Q16">
-        <v>0.03421672361533333</v>
+        <v>0.112225281294</v>
       </c>
       <c r="R16">
-        <v>0.307950512538</v>
+        <v>1.010027531646</v>
       </c>
       <c r="S16">
-        <v>0.001553594615113151</v>
+        <v>0.005269579163993047</v>
       </c>
       <c r="T16">
-        <v>0.001553594615113151</v>
+        <v>0.005269579163993047</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H17">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I17">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J17">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.224883666666667</v>
+        <v>1.071753</v>
       </c>
       <c r="N17">
-        <v>3.674651</v>
+        <v>3.215259</v>
       </c>
       <c r="O17">
-        <v>0.2205848833919584</v>
+        <v>0.1744544965184888</v>
       </c>
       <c r="P17">
-        <v>0.2205848833919585</v>
+        <v>0.1744544965184889</v>
       </c>
       <c r="Q17">
-        <v>0.1039918067108889</v>
+        <v>0.205705840302</v>
       </c>
       <c r="R17">
-        <v>0.935926260398</v>
+        <v>1.851352562718</v>
       </c>
       <c r="S17">
-        <v>0.004721700205379255</v>
+        <v>0.009658993031412919</v>
       </c>
       <c r="T17">
-        <v>0.004721700205379256</v>
+        <v>0.009658993031412919</v>
       </c>
     </row>
   </sheetData>
